--- a/biology/Zoologie/Gylippus_caucasicus/Gylippus_caucasicus.xlsx
+++ b/biology/Zoologie/Gylippus_caucasicus/Gylippus_caucasicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gylippus caucasicus est une espèce de solifuges de la famille des Gylippidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre vers sur à Azerbaïdjan, en Arménie, en Géorgie et en Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre vers sur à Azerbaïdjan, en Arménie, en Géorgie et en Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Roewer en 1933 mesure 20,5 mm et la femelle 25,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Roewer en 1933 mesure 20,5 mm et la femelle 25,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Solifuges of the World (version 1.0)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Solifuges of the World (version 1.0) :
 Gylippus caucasicus caucasicus Birula, 1907 de Transcaucasie
 Gylippus caucasicus koenigi Birula, 1913 de Turquie</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Caucase.
 </t>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Birula, 1907 : Zur Systematik der Solifugengattung Gylippus. Zoologischer Anzeiger, vol. 31, p. 885–893 (texte intégral).
 Birula, 1913 : Monographie der Solifugen-Gattung Gylippus Simon. Archives du Musée Zoologique de l’Université de Moscou, vol. 18, p. 317-400 (texte intégral).</t>
